--- a/TestSystem/resources/Dataen.xlsx
+++ b/TestSystem/resources/Dataen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Not David Bowie\Desktop\3i_test_nummer1-master\TestSystem\TestSystem\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E27400-C9AE-46C5-A15E-345EB066A919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{423ABE68-62C6-4C71-85B3-D9AB93B8DB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="2160" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
   <si>
     <t>Foto</t>
   </si>
@@ -709,6 +709,9 @@
   </si>
   <si>
     <t>Vald435P</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -1053,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1072,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,8 +1097,11 @@
       <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1117,7 +1123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1139,7 +1145,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1163,7 +1169,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1187,7 +1193,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -1211,7 +1217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1235,7 +1241,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1259,7 +1265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -1283,7 +1289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -1307,7 +1313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1331,7 +1337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -1355,7 +1361,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1379,7 +1385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1403,7 +1409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1427,7 +1433,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>13</v>

--- a/TestSystem/resources/Dataen.xlsx
+++ b/TestSystem/resources/Dataen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Not David Bowie\Desktop\3i_test_nummer1-master\TestSystem\TestSystem\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/280fb1beda84f56c/Dokumenter/GitHub/TestSystem/TestSystem/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{423ABE68-62C6-4C71-85B3-D9AB93B8DB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{423ABE68-62C6-4C71-85B3-D9AB93B8DB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29DEF99B-70CE-4E8B-820B-3A19320ED787}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2160" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14775" yWindow="1680" windowWidth="14820" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
   <si>
     <t>Foto</t>
   </si>
@@ -624,9 +624,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>lol</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -712,6 +709,93 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>VsC9RaX</t>
+  </si>
+  <si>
+    <t>Andersercool</t>
+  </si>
+  <si>
+    <t>Johnercool</t>
+  </si>
+  <si>
+    <t>r6Fjk5g</t>
+  </si>
+  <si>
+    <t>CZAgu2r</t>
+  </si>
+  <si>
+    <t>GeX9yvn</t>
+  </si>
+  <si>
+    <t>7EZ7NvF</t>
+  </si>
+  <si>
+    <t>5xMdm4A</t>
+  </si>
+  <si>
+    <t>YU8jXQr</t>
+  </si>
+  <si>
+    <t>x3cdQYn</t>
+  </si>
+  <si>
+    <t>9HBkJMj</t>
+  </si>
+  <si>
+    <t>q6S65S8</t>
+  </si>
+  <si>
+    <t>3fu5gDc</t>
+  </si>
+  <si>
+    <t>WA7ESgJ</t>
+  </si>
+  <si>
+    <t>fy3VHHe</t>
+  </si>
+  <si>
+    <t>KJ28uwq</t>
+  </si>
+  <si>
+    <t>j6tdCjX</t>
+  </si>
+  <si>
+    <t>MTj3SX9</t>
+  </si>
+  <si>
+    <t>rM9PBjk</t>
+  </si>
+  <si>
+    <t>DryK8Kx</t>
+  </si>
+  <si>
+    <t>HQ7tnsR</t>
+  </si>
+  <si>
+    <t>8fw3BXy</t>
+  </si>
+  <si>
+    <t>JE6pEFt</t>
+  </si>
+  <si>
+    <t>wb4eWBg</t>
+  </si>
+  <si>
+    <t>Bx2GCFC</t>
+  </si>
+  <si>
+    <t>mAD6Ztw</t>
+  </si>
+  <si>
+    <t>Y3nMMgg</t>
+  </si>
+  <si>
+    <t>Score2</t>
+  </si>
+  <si>
+    <t>Score3</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1153,11 @@
     <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1095,13 +1180,19 @@
         <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1117,13 +1208,13 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -1139,13 +1230,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -1163,13 +1254,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1187,13 +1278,13 @@
         <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -1211,13 +1302,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1235,13 +1326,13 @@
         <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -1259,13 +1350,13 @@
         <v>21</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -1283,13 +1374,13 @@
         <v>34</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -1307,13 +1398,13 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -1331,13 +1422,13 @@
         <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -1355,13 +1446,13 @@
         <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -1379,13 +1470,13 @@
         <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1403,13 +1494,13 @@
         <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -1427,13 +1518,13 @@
         <v>21</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -1451,10 +1542,10 @@
         <v>21</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1475,10 +1566,10 @@
         <v>57</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,10 +1590,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,10 +1614,10 @@
         <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,10 +1638,10 @@
         <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1571,10 +1662,10 @@
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1595,10 +1686,10 @@
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,10 +1710,10 @@
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,10 +1734,10 @@
         <v>28</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1667,10 +1758,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,10 +1782,10 @@
         <v>28</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,10 +1806,10 @@
         <v>21</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1739,10 +1830,10 @@
         <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TestSystem/resources/Dataen.xlsx
+++ b/TestSystem/resources/Dataen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/280fb1beda84f56c/Dokumenter/GitHub/TestSystem/TestSystem/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{423ABE68-62C6-4C71-85B3-D9AB93B8DB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29DEF99B-70CE-4E8B-820B-3A19320ED787}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{423ABE68-62C6-4C71-85B3-D9AB93B8DB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C6027BE7-680F-4D3D-96F6-E5B020CC8857}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="1680" windowWidth="14820" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14820" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -759,9 +759,6 @@
     <t>KJ28uwq</t>
   </si>
   <si>
-    <t>j6tdCjX</t>
-  </si>
-  <si>
     <t>MTj3SX9</t>
   </si>
   <si>
@@ -796,6 +793,9 @@
   </si>
   <si>
     <t>Score3</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -1142,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1186,10 @@
         <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>108</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>109</v>
@@ -1638,7 +1638,7 @@
         <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>110</v>
@@ -1662,7 +1662,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>111</v>
@@ -1686,7 +1686,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>112</v>
@@ -1710,7 +1710,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>113</v>
@@ -1734,7 +1734,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>114</v>
@@ -1758,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>115</v>
@@ -1782,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>116</v>
@@ -1806,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>118</v>
@@ -1830,7 +1830,7 @@
         <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>117</v>
